--- a/data/trans_orig/P05A02-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P05A02-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C117000F-A63A-4EB2-8866-645B219BE38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D9B0074-8B58-4465-BB69-ECCF358CB9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{C7E7D4F3-6EEC-4153-AED6-CAEF6351A16B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{552E71C9-8EF0-4EE9-BE4A-B7F0A34CDC2C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="840">
   <si>
     <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2007 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>77,43%</t>
   </si>
   <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
   </si>
   <si>
     <t>78,36%</t>
   </si>
   <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
   </si>
   <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -107,2464 +107,2458 @@
     <t>20,45%</t>
   </si>
   <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2012 (Tasa respuesta: 99,72%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2016 (Tasa respuesta: 99,67%)</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
     <t>15,64%</t>
   </si>
   <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
+    <t>92,32%</t>
   </si>
   <si>
     <t>88,53%</t>
   </si>
   <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
   </si>
   <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2012 (Tasa respuesta: 99,72%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2016 (Tasa respuesta: 99,67%)</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
+    <t>2,1%</t>
   </si>
   <si>
     <t>2,16%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>2,51%</t>
+    <t>2,48%</t>
   </si>
 </sst>
 </file>
@@ -2976,7 +2970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAE99F7-B22C-42AF-9D63-E96C06FDC168}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E92437B-CBC7-4FB3-9104-BB67E38A3F91}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3414,7 +3408,7 @@
         <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -3423,13 +3417,13 @@
         <v>22140</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -3438,13 +3432,13 @@
         <v>31085</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,7 +3494,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3512,13 +3506,13 @@
         <v>258773</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>230</v>
@@ -3527,13 +3521,13 @@
         <v>228083</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>480</v>
@@ -3542,13 +3536,13 @@
         <v>486857</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,13 +3557,13 @@
         <v>49916</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -3578,13 +3572,13 @@
         <v>69809</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -3593,13 +3587,13 @@
         <v>119724</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,13 +3608,13 @@
         <v>10157</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>36</v>
@@ -3629,13 +3623,13 @@
         <v>37520</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>47</v>
@@ -3644,13 +3638,13 @@
         <v>47677</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,7 +3700,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3718,13 +3712,13 @@
         <v>286335</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>313</v>
@@ -3733,13 +3727,13 @@
         <v>302584</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>604</v>
@@ -3748,13 +3742,13 @@
         <v>588919</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3763,13 @@
         <v>59375</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>57</v>
@@ -3784,13 +3778,13 @@
         <v>55181</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>115</v>
@@ -3799,13 +3793,13 @@
         <v>114555</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,13 +3814,13 @@
         <v>12029</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -3835,13 +3829,13 @@
         <v>13691</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>26</v>
@@ -3850,13 +3844,13 @@
         <v>25720</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,7 +3906,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3924,13 +3918,13 @@
         <v>167922</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>164</v>
@@ -3939,13 +3933,13 @@
         <v>173806</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>333</v>
@@ -3954,13 +3948,13 @@
         <v>341728</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,13 +3969,13 @@
         <v>28417</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -3990,13 +3984,13 @@
         <v>27932</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>58</v>
@@ -4005,13 +3999,13 @@
         <v>56349</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,13 +4020,13 @@
         <v>6101</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -4041,13 +4035,13 @@
         <v>4936</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -4056,13 +4050,13 @@
         <v>11037</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,7 +4112,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4130,13 +4124,13 @@
         <v>214373</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>200</v>
@@ -4145,13 +4139,13 @@
         <v>204708</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>411</v>
@@ -4160,13 +4154,13 @@
         <v>419081</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4175,13 @@
         <v>48985</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -4196,13 +4190,13 @@
         <v>59887</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>105</v>
@@ -4211,13 +4205,13 @@
         <v>108872</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,13 +4226,13 @@
         <v>7453</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -4247,13 +4241,13 @@
         <v>12608</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -4262,13 +4256,13 @@
         <v>20061</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,7 +4318,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4336,13 +4330,13 @@
         <v>484907</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H28" s="7">
         <v>443</v>
@@ -4351,13 +4345,13 @@
         <v>455938</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M28" s="7">
         <v>909</v>
@@ -4366,13 +4360,13 @@
         <v>940845</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4381,13 @@
         <v>103011</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H29" s="7">
         <v>104</v>
@@ -4402,13 +4396,13 @@
         <v>105144</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M29" s="7">
         <v>209</v>
@@ -4417,13 +4411,13 @@
         <v>208156</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,10 +4432,10 @@
         <v>25176</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>200</v>
@@ -4650,7 +4644,7 @@
         <v>227</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="H34" s="7">
         <v>17</v>
@@ -4659,7 +4653,7 @@
         <v>17336</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>229</v>
@@ -4674,7 +4668,7 @@
         <v>36374</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>231</v>
@@ -4766,10 +4760,10 @@
         <v>236</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M36" s="7">
         <v>4956</v>
@@ -4778,10 +4772,10 @@
         <v>5066464</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>240</v>
@@ -4817,10 +4811,10 @@
         <v>244</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M37" s="7">
         <v>1263</v>
@@ -4829,13 +4823,13 @@
         <v>1290188</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P37" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="Q37" s="7" t="s">
-        <v>21</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,10 +4844,10 @@
         <v>94679</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>249</v>
+        <v>147</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>250</v>
@@ -4865,13 +4859,13 @@
         <v>189555</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>116</v>
+        <v>251</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M38" s="7">
         <v>277</v>
@@ -4880,13 +4874,13 @@
         <v>284234</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,7 +4936,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4966,7 +4960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457F084E-4F4A-41BD-9FAB-66709BEE7570}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D915D4B6-D3F7-4AA1-9F76-AC252691D8AF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4983,7 +4977,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5088,39 +5082,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,39 +5127,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,39 +5172,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,39 +5217,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,13 +5266,13 @@
         <v>392162</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>377</v>
@@ -5287,13 +5281,13 @@
         <v>411895</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>747</v>
@@ -5302,13 +5296,13 @@
         <v>804057</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,7 +5323,7 @@
         <v>269</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>270</v>
       </c>
       <c r="H9" s="7">
         <v>78</v>
@@ -5338,13 +5332,13 @@
         <v>82472</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M9" s="7">
         <v>165</v>
@@ -5353,10 +5347,10 @@
         <v>178935</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>274</v>
+        <v>203</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>275</v>
@@ -5410,7 +5404,7 @@
         <v>283</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>172</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,7 +5460,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5478,13 +5472,13 @@
         <v>306382</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H12" s="7">
         <v>298</v>
@@ -5493,13 +5487,13 @@
         <v>319516</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M12" s="7">
         <v>599</v>
@@ -5508,10 +5502,10 @@
         <v>625898</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>292</v>
@@ -5535,7 +5529,7 @@
         <v>294</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -5544,13 +5538,13 @@
         <v>21504</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -5559,13 +5553,13 @@
         <v>34280</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5574,13 @@
         <v>2887</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5595,13 +5589,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -5610,13 +5604,13 @@
         <v>2887</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,7 +5666,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5684,13 +5678,13 @@
         <v>543097</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H16" s="7">
         <v>457</v>
@@ -5699,13 +5693,13 @@
         <v>492001</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M16" s="7">
         <v>967</v>
@@ -5714,13 +5708,13 @@
         <v>1035098</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>318</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5822,7 +5816,7 @@
         <v>335</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>336</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,7 +5872,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5890,13 +5884,13 @@
         <v>185408</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H20" s="7">
         <v>167</v>
@@ -5905,13 +5899,13 @@
         <v>172743</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M20" s="7">
         <v>338</v>
@@ -5920,13 +5914,13 @@
         <v>358151</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,13 +5935,13 @@
         <v>19052</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H21" s="7">
         <v>32</v>
@@ -5956,13 +5950,13 @@
         <v>34653</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M21" s="7">
         <v>49</v>
@@ -5971,13 +5965,13 @@
         <v>53705</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,13 +5986,13 @@
         <v>8158</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -6007,13 +6001,13 @@
         <v>12195</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -6022,13 +6016,13 @@
         <v>20353</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6084,7 +6078,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6096,13 +6090,13 @@
         <v>254662</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H24" s="7">
         <v>258</v>
@@ -6111,13 +6105,13 @@
         <v>268887</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>289</v>
+        <v>364</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M24" s="7">
         <v>501</v>
@@ -6126,13 +6120,13 @@
         <v>523549</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,13 +6141,13 @@
         <v>15265</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -6162,13 +6156,13 @@
         <v>10087</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>299</v>
+        <v>373</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>374</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>375</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -6177,13 +6171,13 @@
         <v>25352</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,13 +6192,13 @@
         <v>4054</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -6213,10 +6207,10 @@
         <v>1056</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>381</v>
@@ -6290,7 +6284,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6371,10 +6365,10 @@
         <v>397</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>228</v>
+        <v>398</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M29" s="7">
         <v>79</v>
@@ -6383,13 +6377,13 @@
         <v>86422</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>332</v>
+        <v>395</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,13 +6398,13 @@
         <v>8930</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>403</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -6419,13 +6413,13 @@
         <v>15481</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -6434,13 +6428,13 @@
         <v>24410</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>199</v>
+        <v>410</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,13 +6502,13 @@
         <v>607061</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H32" s="7">
         <v>600</v>
@@ -6523,13 +6517,13 @@
         <v>652317</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M32" s="7">
         <v>1158</v>
@@ -6538,13 +6532,13 @@
         <v>1259378</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6559,13 +6553,13 @@
         <v>149859</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>272</v>
+        <v>420</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H33" s="7">
         <v>136</v>
@@ -6574,13 +6568,13 @@
         <v>148795</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M33" s="7">
         <v>273</v>
@@ -6589,13 +6583,13 @@
         <v>298654</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>245</v>
+        <v>426</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,13 +6604,13 @@
         <v>22177</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>425</v>
+        <v>335</v>
       </c>
       <c r="H34" s="7">
         <v>21</v>
@@ -6625,13 +6619,13 @@
         <v>22741</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>199</v>
+        <v>429</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>426</v>
+        <v>117</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="M34" s="7">
         <v>43</v>
@@ -6640,13 +6634,13 @@
         <v>44918</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6714,13 +6708,13 @@
         <v>2895656</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>312</v>
+        <v>434</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="H36" s="7">
         <v>2742</v>
@@ -6729,28 +6723,28 @@
         <v>2954380</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>433</v>
+        <v>13</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M36" s="7">
         <v>5462</v>
       </c>
       <c r="N36" s="7">
-        <v>5850036</v>
+        <v>5850037</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6765,13 +6759,13 @@
         <v>434507</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H37" s="7">
         <v>435</v>
@@ -6780,13 +6774,13 @@
         <v>469358</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="M37" s="7">
         <v>834</v>
@@ -6795,13 +6789,13 @@
         <v>903866</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,13 +6810,13 @@
         <v>86202</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>447</v>
+        <v>404</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H38" s="7">
         <v>111</v>
@@ -6831,13 +6825,13 @@
         <v>122754</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>451</v>
+        <v>249</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M38" s="7">
         <v>193</v>
@@ -6846,13 +6840,13 @@
         <v>208956</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>230</v>
+        <v>457</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,7 +6888,7 @@
         <v>6489</v>
       </c>
       <c r="N39" s="7">
-        <v>6962858</v>
+        <v>6962859</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -6908,7 +6902,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -6932,7 +6926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A725D17-6923-4298-AD01-C3BDF0DAB522}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82CD269-205A-462E-889F-422D9E0989AB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6949,7 +6943,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7056,13 +7050,13 @@
         <v>216617</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="H4" s="7">
         <v>195</v>
@@ -7071,13 +7065,13 @@
         <v>202139</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="M4" s="7">
         <v>390</v>
@@ -7086,13 +7080,13 @@
         <v>418755</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,13 +7101,13 @@
         <v>56367</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H5" s="7">
         <v>66</v>
@@ -7122,13 +7116,13 @@
         <v>68432</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>469</v>
+        <v>426</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M5" s="7">
         <v>119</v>
@@ -7137,13 +7131,13 @@
         <v>124799</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>161</v>
+        <v>474</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,13 +7152,13 @@
         <v>18666</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>475</v>
+        <v>298</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -7176,10 +7170,10 @@
         <v>397</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>230</v>
+        <v>478</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="M6" s="7">
         <v>31</v>
@@ -7188,13 +7182,13 @@
         <v>35826</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>478</v>
+        <v>254</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7262,13 +7256,13 @@
         <v>397717</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H8" s="7">
         <v>385</v>
@@ -7277,13 +7271,13 @@
         <v>414527</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M8" s="7">
         <v>758</v>
@@ -7292,13 +7286,13 @@
         <v>812243</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,13 +7307,13 @@
         <v>89171</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>91</v>
+        <v>492</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="H9" s="7">
         <v>73</v>
@@ -7328,13 +7322,13 @@
         <v>81157</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>494</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="M9" s="7">
         <v>160</v>
@@ -7343,13 +7337,13 @@
         <v>170328</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>493</v>
+        <v>170</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7364,13 +7358,13 @@
         <v>14671</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>496</v>
+        <v>376</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>255</v>
+        <v>500</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -7379,13 +7373,13 @@
         <v>23244</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>377</v>
+        <v>428</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>295</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -7394,13 +7388,13 @@
         <v>37915</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>499</v>
+        <v>407</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>501</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7456,7 +7450,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7468,13 +7462,13 @@
         <v>295761</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H12" s="7">
         <v>314</v>
@@ -7483,13 +7477,13 @@
         <v>317305</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M12" s="7">
         <v>625</v>
@@ -7498,13 +7492,13 @@
         <v>613066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,10 +7513,10 @@
         <v>22804</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>513</v>
@@ -7537,10 +7531,10 @@
         <v>514</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -7549,13 +7543,13 @@
         <v>39259</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7570,13 +7564,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -7585,13 +7579,13 @@
         <v>2549</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -7600,13 +7594,13 @@
         <v>2549</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7662,7 +7656,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7674,13 +7668,13 @@
         <v>295607</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>526</v>
       </c>
       <c r="H16" s="7">
         <v>278</v>
@@ -7689,13 +7683,13 @@
         <v>302883</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="M16" s="7">
         <v>561</v>
@@ -7704,13 +7698,13 @@
         <v>598489</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7725,13 +7719,13 @@
         <v>46697</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>534</v>
+        <v>136</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>535</v>
+        <v>170</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -7740,13 +7734,13 @@
         <v>57246</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -7755,13 +7749,13 @@
         <v>103943</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>192</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7776,13 +7770,13 @@
         <v>22655</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H18" s="7">
         <v>26</v>
@@ -7791,13 +7785,13 @@
         <v>27154</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>545</v>
+        <v>152</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M18" s="7">
         <v>49</v>
@@ -7806,13 +7800,13 @@
         <v>49810</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>544</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7868,7 +7862,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7880,13 +7874,13 @@
         <v>199498</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H20" s="7">
         <v>206</v>
@@ -7895,13 +7889,13 @@
         <v>201460</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="M20" s="7">
         <v>406</v>
@@ -7910,13 +7904,13 @@
         <v>400958</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7931,13 +7925,13 @@
         <v>9920</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -7946,13 +7940,13 @@
         <v>13717</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>562</v>
+        <v>39</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -7961,13 +7955,13 @@
         <v>23637</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>566</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7982,13 +7976,13 @@
         <v>1803</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -7997,13 +7991,13 @@
         <v>3410</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>570</v>
+        <v>35</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -8012,13 +8006,13 @@
         <v>5213</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>307</v>
+        <v>567</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8074,7 +8068,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8086,13 +8080,13 @@
         <v>242926</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>576</v>
+        <v>505</v>
       </c>
       <c r="H24" s="7">
         <v>241</v>
@@ -8101,13 +8095,13 @@
         <v>250532</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="M24" s="7">
         <v>481</v>
@@ -8116,13 +8110,13 @@
         <v>493458</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>291</v>
+        <v>574</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>581</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8137,13 +8131,13 @@
         <v>19236</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -8152,13 +8146,13 @@
         <v>19528</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>585</v>
+        <v>301</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>62</v>
+        <v>579</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
@@ -8167,13 +8161,13 @@
         <v>38764</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>122</v>
+        <v>582</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8188,13 +8182,13 @@
         <v>961</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -8203,13 +8197,13 @@
         <v>2021</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -8218,13 +8212,13 @@
         <v>2981</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8280,7 +8274,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8292,13 +8286,13 @@
         <v>575771</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>595</v>
+        <v>128</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="H28" s="7">
         <v>545</v>
@@ -8307,13 +8301,13 @@
         <v>584209</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="M28" s="7">
         <v>1055</v>
@@ -8322,13 +8316,13 @@
         <v>1159979</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>602</v>
+        <v>129</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8343,13 +8337,13 @@
         <v>65754</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H29" s="7">
         <v>77</v>
@@ -8358,13 +8352,13 @@
         <v>80235</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="M29" s="7">
         <v>134</v>
@@ -8373,13 +8367,13 @@
         <v>145988</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>438</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8394,13 +8388,13 @@
         <v>15033</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>121</v>
+        <v>381</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>293</v>
+        <v>608</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -8409,13 +8403,13 @@
         <v>24325</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>614</v>
+        <v>299</v>
       </c>
       <c r="M30" s="7">
         <v>35</v>
@@ -8424,13 +8418,13 @@
         <v>39359</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>496</v>
+        <v>376</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8498,13 +8492,13 @@
         <v>744882</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="H32" s="7">
         <v>707</v>
@@ -8513,13 +8507,13 @@
         <v>771781</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="M32" s="7">
         <v>1424</v>
@@ -8528,13 +8522,13 @@
         <v>1516662</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>624</v>
+        <v>387</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8549,13 +8543,13 @@
         <v>27030</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>628</v>
+        <v>514</v>
       </c>
       <c r="H33" s="7">
         <v>36</v>
@@ -8564,13 +8558,13 @@
         <v>40438</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="M33" s="7">
         <v>63</v>
@@ -8579,13 +8573,13 @@
         <v>67468</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8600,13 +8594,13 @@
         <v>5585</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>87</v>
+        <v>277</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -8615,13 +8609,13 @@
         <v>6688</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="M34" s="7">
         <v>11</v>
@@ -8630,13 +8624,13 @@
         <v>12273</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>522</v>
+        <v>379</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8704,13 +8698,13 @@
         <v>2968778</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>595</v>
+        <v>128</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="H36" s="7">
         <v>2871</v>
@@ -8719,13 +8713,13 @@
         <v>3044833</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="M36" s="7">
         <v>5700</v>
@@ -8734,13 +8728,13 @@
         <v>6013611</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8755,13 +8749,13 @@
         <v>336980</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="H37" s="7">
         <v>355</v>
@@ -8770,13 +8764,13 @@
         <v>377207</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>352</v>
+        <v>646</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="M37" s="7">
         <v>675</v>
@@ -8785,13 +8779,13 @@
         <v>714186</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8806,13 +8800,13 @@
         <v>79374</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="H38" s="7">
         <v>98</v>
@@ -8821,13 +8815,13 @@
         <v>106552</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>361</v>
+        <v>653</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>174</v>
+        <v>654</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="M38" s="7">
         <v>172</v>
@@ -8836,13 +8830,13 @@
         <v>185926</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>283</v>
+        <v>656</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>249</v>
+        <v>657</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8898,7 +8892,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -8922,7 +8916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCA8178-0E3C-4C4B-B6C9-E16F3EA976C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82056664-602E-4E1D-956A-A9EF8DEED15F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8939,7 +8933,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9046,13 +9040,13 @@
         <v>257558</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>662</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>664</v>
       </c>
       <c r="H4" s="7">
         <v>531</v>
@@ -9061,13 +9055,13 @@
         <v>266639</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>665</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>667</v>
       </c>
       <c r="M4" s="7">
         <v>856</v>
@@ -9076,13 +9070,13 @@
         <v>524196</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>668</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9097,10 +9091,10 @@
         <v>2740</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>669</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>383</v>
+        <v>670</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>671</v>
@@ -9115,7 +9109,7 @@
         <v>672</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>522</v>
+        <v>379</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>673</v>
@@ -9127,13 +9121,13 @@
         <v>7186</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>674</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>675</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9148,13 +9142,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>674</v>
+        <v>403</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -9163,13 +9157,13 @@
         <v>318</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>676</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -9181,7 +9175,7 @@
         <v>677</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>678</v>
@@ -9255,10 +9249,10 @@
         <v>679</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>680</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>681</v>
       </c>
       <c r="H8" s="7">
         <v>622</v>
@@ -9267,13 +9261,13 @@
         <v>482705</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>683</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>684</v>
       </c>
       <c r="M8" s="7">
         <v>954</v>
@@ -9282,13 +9276,13 @@
         <v>941691</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>686</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9303,13 +9297,13 @@
         <v>56954</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>689</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>690</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
@@ -9318,13 +9312,13 @@
         <v>63000</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>692</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>693</v>
       </c>
       <c r="M9" s="7">
         <v>129</v>
@@ -9333,13 +9327,13 @@
         <v>119954</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>694</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9354,13 +9348,13 @@
         <v>3358</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>697</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>698</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -9369,13 +9363,13 @@
         <v>8861</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>638</v>
+        <v>698</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>410</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -9387,10 +9381,10 @@
         <v>699</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>700</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9446,7 +9440,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -9458,13 +9452,13 @@
         <v>282590</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>703</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>704</v>
       </c>
       <c r="H12" s="7">
         <v>483</v>
@@ -9473,13 +9467,13 @@
         <v>332792</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>705</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>706</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>707</v>
       </c>
       <c r="M12" s="7">
         <v>803</v>
@@ -9488,13 +9482,13 @@
         <v>615382</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>709</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9509,13 +9503,13 @@
         <v>24267</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>711</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -9563,10 +9557,10 @@
         <v>718</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>719</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>720</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -9575,13 +9569,13 @@
         <v>11328</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>33</v>
+        <v>722</v>
       </c>
       <c r="M14" s="7">
         <v>28</v>
@@ -9590,13 +9584,13 @@
         <v>25661</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>429</v>
+        <v>655</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9652,7 +9646,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9664,10 +9658,10 @@
         <v>290389</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>725</v>
+        <v>436</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>726</v>
@@ -9682,10 +9676,10 @@
         <v>727</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>432</v>
+        <v>728</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>728</v>
+        <v>686</v>
       </c>
       <c r="M16" s="7">
         <v>767</v>
@@ -9694,10 +9688,10 @@
         <v>661547</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>578</v>
+        <v>729</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>729</v>
+        <v>685</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>730</v>
@@ -9730,10 +9724,10 @@
         <v>50364</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>734</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>735</v>
@@ -9766,13 +9760,13 @@
         <v>2108</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>282</v>
+        <v>739</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -9781,7 +9775,7 @@
         <v>6371</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>739</v>
+        <v>590</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>740</v>
@@ -9796,10 +9790,10 @@
         <v>8479</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>407</v>
+        <v>742</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>742</v>
+        <v>403</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>743</v>
@@ -9858,7 +9852,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9873,10 +9867,10 @@
         <v>744</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H20" s="7">
         <v>452</v>
@@ -9885,13 +9879,13 @@
         <v>236991</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M20" s="7">
         <v>712</v>
@@ -9900,13 +9894,13 @@
         <v>421266</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9921,10 +9915,10 @@
         <v>12313</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>752</v>
+        <v>433</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>753</v>
@@ -9936,10 +9930,10 @@
         <v>19925</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>754</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>628</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>755</v>
@@ -9954,10 +9948,10 @@
         <v>756</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>332</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>137</v>
+        <v>731</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9975,10 +9969,10 @@
         <v>757</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>570</v>
+        <v>383</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -9987,10 +9981,10 @@
         <v>452</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>758</v>
@@ -10005,10 +9999,10 @@
         <v>759</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10064,7 +10058,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -10076,13 +10070,13 @@
         <v>251636</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H24" s="7">
         <v>424</v>
@@ -10091,13 +10085,13 @@
         <v>252990</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M24" s="7">
         <v>762</v>
@@ -10106,13 +10100,13 @@
         <v>504626</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10127,13 +10121,13 @@
         <v>18928</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>583</v>
+        <v>771</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -10142,13 +10136,13 @@
         <v>14153</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>771</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -10157,13 +10151,13 @@
         <v>33081</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>774</v>
+        <v>330</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>718</v>
+        <v>775</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10178,13 +10172,13 @@
         <v>6659</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>278</v>
+        <v>779</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -10193,13 +10187,13 @@
         <v>8478</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>778</v>
+        <v>658</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>87</v>
+        <v>564</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>779</v>
+        <v>560</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
@@ -10208,13 +10202,13 @@
         <v>15137</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>780</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10270,7 +10264,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10282,13 +10276,13 @@
         <v>547761</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>782</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>783</v>
-      </c>
       <c r="G28" s="7" t="s">
-        <v>784</v>
+        <v>392</v>
       </c>
       <c r="H28" s="7">
         <v>830</v>
@@ -10297,13 +10291,13 @@
         <v>713609</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>785</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>786</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>787</v>
       </c>
       <c r="M28" s="7">
         <v>1356</v>
@@ -10312,13 +10306,13 @@
         <v>1261369</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10336,10 +10330,10 @@
         <v>331</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>791</v>
+        <v>622</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="H29" s="7">
         <v>77</v>
@@ -10348,13 +10342,13 @@
         <v>50901</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="M29" s="7">
         <v>117</v>
@@ -10363,13 +10357,13 @@
         <v>94674</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10384,13 +10378,13 @@
         <v>34705</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>713</v>
+        <v>795</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>176</v>
+        <v>796</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>737</v>
+        <v>797</v>
       </c>
       <c r="H30" s="7">
         <v>50</v>
@@ -10399,13 +10393,13 @@
         <v>37617</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>799</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>427</v>
-      </c>
       <c r="L30" s="7" t="s">
-        <v>64</v>
+        <v>253</v>
       </c>
       <c r="M30" s="7">
         <v>80</v>
@@ -10491,7 +10485,7 @@
         <v>803</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>388</v>
+        <v>764</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>804</v>
@@ -10524,7 +10518,7 @@
         <v>809</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>810</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10539,13 +10533,13 @@
         <v>40960</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>791</v>
+        <v>152</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>811</v>
+        <v>625</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="H33" s="7">
         <v>71</v>
@@ -10554,13 +10548,13 @@
         <v>55846</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>252</v>
+        <v>811</v>
       </c>
       <c r="K33" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>813</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>814</v>
       </c>
       <c r="M33" s="7">
         <v>107</v>
@@ -10569,13 +10563,13 @@
         <v>96806</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>816</v>
+        <v>501</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>817</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10590,13 +10584,13 @@
         <v>9684</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>407</v>
+        <v>742</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="H34" s="7">
         <v>12</v>
@@ -10605,13 +10599,13 @@
         <v>9129</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>171</v>
+        <v>669</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>742</v>
+        <v>817</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>406</v>
+        <v>818</v>
       </c>
       <c r="M34" s="7">
         <v>21</v>
@@ -10620,13 +10614,13 @@
         <v>18813</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>820</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>821</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10697,10 +10691,10 @@
         <v>822</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>392</v>
+        <v>823</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H36" s="7">
         <v>4829</v>
@@ -10709,13 +10703,13 @@
         <v>3460345</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="M36" s="7">
         <v>7906</v>
@@ -10724,13 +10718,13 @@
         <v>6542321</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10745,13 +10739,13 @@
         <v>229679</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>831</v>
+        <v>716</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>832</v>
+        <v>774</v>
       </c>
       <c r="H37" s="7">
         <v>418</v>
@@ -10760,13 +10754,13 @@
         <v>287799</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>833</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>834</v>
-      </c>
       <c r="L37" s="7" t="s">
-        <v>835</v>
+        <v>481</v>
       </c>
       <c r="M37" s="7">
         <v>648</v>
@@ -10775,13 +10769,13 @@
         <v>517478</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>90</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10796,13 +10790,13 @@
         <v>71007</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>615</v>
+        <v>836</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>838</v>
+        <v>564</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>780</v>
+        <v>283</v>
       </c>
       <c r="H38" s="7">
         <v>114</v>
@@ -10811,13 +10805,13 @@
         <v>82554</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>613</v>
+        <v>837</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>839</v>
+        <v>656</v>
       </c>
       <c r="M38" s="7">
         <v>179</v>
@@ -10826,13 +10820,13 @@
         <v>153561</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>406</v>
+        <v>60</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10888,7 +10882,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A02-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P05A02-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D9B0074-8B58-4465-BB69-ECCF358CB9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{189E2648-B343-4B9C-B648-276F0D295ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{552E71C9-8EF0-4EE9-BE4A-B7F0A34CDC2C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{75CA0CEA-A52A-4B3C-A08E-2E339E934B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="860">
   <si>
     <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2007 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -818,7 +818,79 @@
     <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2012 (Tasa respuesta: 99,72%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
   </si>
   <si>
     <t>77,89%</t>
@@ -974,1591 +1046,1579 @@
     <t>1,19%</t>
   </si>
   <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
   </si>
   <si>
     <t>6,99%</t>
   </si>
   <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2016 (Tasa respuesta: 99,67%)</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
     <t>4,92%</t>
   </si>
   <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
     <t>9,03%</t>
   </si>
   <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2016 (Tasa respuesta: 99,67%)</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
+    <t>14,29%</t>
   </si>
   <si>
     <t>10,97%</t>
   </si>
   <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
+    <t>2,53%</t>
   </si>
 </sst>
 </file>
@@ -2970,7 +3030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E92437B-CBC7-4FB3-9104-BB67E38A3F91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BB3DB4-AFBD-439C-9D6F-8E46BE433CB4}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4960,7 +5020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D915D4B6-D3F7-4AA1-9F76-AC252691D8AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1E15B0-BC8D-45E5-9DEE-C64E74B80C4F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5078,43 +5138,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>224</v>
+      </c>
+      <c r="D4" s="7">
+        <v>231115</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>259</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="I4" s="7">
+        <v>203961</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>405</v>
+      </c>
+      <c r="N4" s="7">
+        <v>435077</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,43 +5189,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="D5" s="7">
+        <v>45337</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="I5" s="7">
+        <v>58610</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="N5" s="7">
+        <v>103946</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,43 +5240,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D6" s="7">
+        <v>14992</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>259</v>
+        <v>149</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I6" s="7">
+        <v>19751</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="N6" s="7">
+        <v>34743</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,43 +5291,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>279</v>
+      </c>
+      <c r="D7" s="7">
+        <v>291444</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>252</v>
+      </c>
+      <c r="I7" s="7">
+        <v>282322</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>531</v>
+      </c>
+      <c r="N7" s="7">
+        <v>573766</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,13 +5350,13 @@
         <v>392162</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H8" s="7">
         <v>377</v>
@@ -5281,13 +5365,13 @@
         <v>411895</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="M8" s="7">
         <v>747</v>
@@ -5296,10 +5380,10 @@
         <v>804057</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -5317,13 +5401,13 @@
         <v>96463</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="H9" s="7">
         <v>78</v>
@@ -5332,13 +5416,13 @@
         <v>82472</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="M9" s="7">
         <v>165</v>
@@ -5347,13 +5431,13 @@
         <v>178935</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>203</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5452,13 @@
         <v>14857</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -5383,13 +5467,13 @@
         <v>24474</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -5398,13 +5482,13 @@
         <v>39330</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5556,13 @@
         <v>306382</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="H12" s="7">
         <v>298</v>
@@ -5487,13 +5571,13 @@
         <v>319516</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="M12" s="7">
         <v>599</v>
@@ -5502,13 +5586,13 @@
         <v>625898</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5607,13 @@
         <v>12776</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -5538,13 +5622,13 @@
         <v>21504</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -5553,13 +5637,13 @@
         <v>34280</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,13 +5658,13 @@
         <v>2887</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5589,13 +5673,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -5604,13 +5688,13 @@
         <v>2887</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,49 +5756,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>510</v>
+        <v>286</v>
       </c>
       <c r="D16" s="7">
-        <v>543097</v>
+        <v>311981</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="H16" s="7">
-        <v>457</v>
+        <v>276</v>
       </c>
       <c r="I16" s="7">
-        <v>492001</v>
+        <v>288039</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="M16" s="7">
-        <v>967</v>
+        <v>562</v>
       </c>
       <c r="N16" s="7">
-        <v>1035098</v>
+        <v>600021</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,49 +5807,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="D17" s="7">
-        <v>96022</v>
+        <v>50685</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>321</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="I17" s="7">
-        <v>130495</v>
+        <v>71886</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="M17" s="7">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="N17" s="7">
-        <v>226518</v>
+        <v>122571</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,49 +5858,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>25140</v>
+        <v>10148</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="H18" s="7">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I18" s="7">
-        <v>46807</v>
+        <v>27056</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>332</v>
+        <v>256</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="M18" s="7">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="N18" s="7">
-        <v>71947</v>
+        <v>37204</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>205</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,10 +5909,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>622</v>
+        <v>343</v>
       </c>
       <c r="D19" s="7">
-        <v>664259</v>
+        <v>372814</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5840,10 +5924,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>621</v>
+        <v>369</v>
       </c>
       <c r="I19" s="7">
-        <v>669303</v>
+        <v>386981</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5855,10 +5939,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1243</v>
+        <v>712</v>
       </c>
       <c r="N19" s="7">
-        <v>1333562</v>
+        <v>759796</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5884,13 +5968,13 @@
         <v>185408</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="H20" s="7">
         <v>167</v>
@@ -5899,13 +5983,13 @@
         <v>172743</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="M20" s="7">
         <v>338</v>
@@ -5914,13 +5998,13 @@
         <v>358151</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5935,13 +6019,13 @@
         <v>19052</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="H21" s="7">
         <v>32</v>
@@ -5950,13 +6034,13 @@
         <v>34653</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="M21" s="7">
         <v>49</v>
@@ -5965,13 +6049,13 @@
         <v>53705</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,13 +6070,13 @@
         <v>8158</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -6001,13 +6085,13 @@
         <v>12195</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -6016,13 +6100,13 @@
         <v>20353</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6090,13 +6174,13 @@
         <v>254662</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="H24" s="7">
         <v>258</v>
@@ -6105,13 +6189,13 @@
         <v>268887</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="M24" s="7">
         <v>501</v>
@@ -6120,13 +6204,13 @@
         <v>523549</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6141,13 +6225,13 @@
         <v>15265</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -6156,10 +6240,10 @@
         <v>10087</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>146</v>
@@ -6171,13 +6255,13 @@
         <v>25352</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,13 +6276,13 @@
         <v>4054</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -6207,13 +6291,13 @@
         <v>1056</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -6222,13 +6306,13 @@
         <v>5110</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6296,13 +6380,13 @@
         <v>606884</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="H28" s="7">
         <v>585</v>
@@ -6311,13 +6395,13 @@
         <v>637021</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="M28" s="7">
         <v>1152</v>
@@ -6326,13 +6410,13 @@
         <v>1243905</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,13 +6431,13 @@
         <v>45070</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="H29" s="7">
         <v>38</v>
@@ -6362,13 +6446,13 @@
         <v>41352</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="M29" s="7">
         <v>79</v>
@@ -6377,13 +6461,13 @@
         <v>86422</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,13 +6482,13 @@
         <v>8930</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -6413,13 +6497,13 @@
         <v>15481</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -6428,13 +6512,13 @@
         <v>24410</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>410</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6502,13 +6586,13 @@
         <v>607061</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>412</v>
+        <v>338</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="H32" s="7">
         <v>600</v>
@@ -6517,13 +6601,13 @@
         <v>652317</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="M32" s="7">
         <v>1158</v>
@@ -6532,13 +6616,13 @@
         <v>1259378</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,13 +6637,13 @@
         <v>149859</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="H33" s="7">
         <v>136</v>
@@ -6568,13 +6652,13 @@
         <v>148795</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="M33" s="7">
         <v>273</v>
@@ -6583,13 +6667,13 @@
         <v>298654</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>167</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6604,13 +6688,13 @@
         <v>22177</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>335</v>
+        <v>448</v>
       </c>
       <c r="H34" s="7">
         <v>21</v>
@@ -6619,13 +6703,13 @@
         <v>22741</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>117</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="M34" s="7">
         <v>43</v>
@@ -6634,13 +6718,13 @@
         <v>44918</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,13 +6792,13 @@
         <v>2895656</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="H36" s="7">
         <v>2742</v>
@@ -6723,13 +6807,13 @@
         <v>2954380</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="M36" s="7">
         <v>5462</v>
@@ -6738,13 +6822,13 @@
         <v>5850037</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6759,13 +6843,13 @@
         <v>434507</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="H37" s="7">
         <v>435</v>
@@ -6774,13 +6858,13 @@
         <v>469358</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="M37" s="7">
         <v>834</v>
@@ -6789,13 +6873,13 @@
         <v>903866</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,13 +6894,13 @@
         <v>86202</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="H38" s="7">
         <v>111</v>
@@ -6825,13 +6909,13 @@
         <v>122754</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>249</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="M38" s="7">
         <v>193</v>
@@ -6840,13 +6924,13 @@
         <v>208956</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6926,7 +7010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82CD269-205A-462E-889F-422D9E0989AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DEA08A-20A2-40FF-8DDE-959D82CD3FC6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6943,7 +7027,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7050,13 +7134,13 @@
         <v>216617</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="H4" s="7">
         <v>195</v>
@@ -7065,13 +7149,13 @@
         <v>202139</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="M4" s="7">
         <v>390</v>
@@ -7080,13 +7164,13 @@
         <v>418755</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,13 +7185,13 @@
         <v>56367</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="H5" s="7">
         <v>66</v>
@@ -7116,13 +7200,13 @@
         <v>68432</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="M5" s="7">
         <v>119</v>
@@ -7131,13 +7215,13 @@
         <v>124799</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,13 +7236,13 @@
         <v>18666</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -7167,13 +7251,13 @@
         <v>17160</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="M6" s="7">
         <v>31</v>
@@ -7182,13 +7266,13 @@
         <v>35826</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>254</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>481</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7256,13 +7340,13 @@
         <v>397717</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>482</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="H8" s="7">
         <v>385</v>
@@ -7271,13 +7355,13 @@
         <v>414527</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="M8" s="7">
         <v>758</v>
@@ -7286,13 +7370,13 @@
         <v>812243</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,13 +7391,13 @@
         <v>89171</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="H9" s="7">
         <v>73</v>
@@ -7322,13 +7406,13 @@
         <v>81157</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="M9" s="7">
         <v>160</v>
@@ -7340,10 +7424,10 @@
         <v>170</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7358,13 +7442,13 @@
         <v>14671</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -7373,13 +7457,13 @@
         <v>23244</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -7388,13 +7472,13 @@
         <v>37915</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>332</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7462,13 +7546,13 @@
         <v>295761</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="H12" s="7">
         <v>314</v>
@@ -7477,13 +7561,13 @@
         <v>317305</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="M12" s="7">
         <v>625</v>
@@ -7492,13 +7576,13 @@
         <v>613066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7513,13 +7597,13 @@
         <v>22804</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>256</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -7528,13 +7612,13 @@
         <v>16455</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -7543,13 +7627,13 @@
         <v>39259</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,13 +7648,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -7579,13 +7663,13 @@
         <v>2549</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -7594,13 +7678,13 @@
         <v>2549</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7668,13 +7752,13 @@
         <v>295607</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="H16" s="7">
         <v>278</v>
@@ -7683,13 +7767,13 @@
         <v>302883</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="M16" s="7">
         <v>561</v>
@@ -7698,13 +7782,13 @@
         <v>598489</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7719,7 +7803,7 @@
         <v>46697</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>136</v>
@@ -7734,13 +7818,13 @@
         <v>57246</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>532</v>
+        <v>347</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -7749,13 +7833,13 @@
         <v>103943</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7770,13 +7854,13 @@
         <v>22655</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="H18" s="7">
         <v>26</v>
@@ -7785,13 +7869,13 @@
         <v>27154</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>152</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="M18" s="7">
         <v>49</v>
@@ -7800,13 +7884,13 @@
         <v>49810</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7874,13 +7958,13 @@
         <v>199498</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="H20" s="7">
         <v>206</v>
@@ -7889,13 +7973,13 @@
         <v>201460</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="M20" s="7">
         <v>406</v>
@@ -7904,13 +7988,13 @@
         <v>400958</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7925,13 +8009,13 @@
         <v>9920</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -7940,13 +8024,13 @@
         <v>13717</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>39</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -7955,13 +8039,13 @@
         <v>23637</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7976,13 +8060,13 @@
         <v>1803</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -7991,13 +8075,13 @@
         <v>3410</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -8006,13 +8090,13 @@
         <v>5213</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8080,13 +8164,13 @@
         <v>242926</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="H24" s="7">
         <v>241</v>
@@ -8095,13 +8179,13 @@
         <v>250532</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="M24" s="7">
         <v>481</v>
@@ -8110,13 +8194,13 @@
         <v>493458</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8131,13 +8215,13 @@
         <v>19236</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -8146,13 +8230,13 @@
         <v>19528</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>579</v>
+        <v>597</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
@@ -8161,13 +8245,13 @@
         <v>38764</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>583</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8182,13 +8266,13 @@
         <v>961</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -8197,13 +8281,13 @@
         <v>2021</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -8212,13 +8296,13 @@
         <v>2981</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8289,10 +8373,10 @@
         <v>128</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="H28" s="7">
         <v>545</v>
@@ -8301,28 +8385,28 @@
         <v>584209</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="M28" s="7">
         <v>1055</v>
       </c>
       <c r="N28" s="7">
-        <v>1159979</v>
+        <v>1159980</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>129</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8337,13 +8421,13 @@
         <v>65754</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="H29" s="7">
         <v>77</v>
@@ -8352,13 +8436,13 @@
         <v>80235</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
       <c r="M29" s="7">
         <v>134</v>
@@ -8367,13 +8451,13 @@
         <v>145988</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8388,13 +8472,13 @@
         <v>15033</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -8406,10 +8490,10 @@
         <v>122</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="M30" s="7">
         <v>35</v>
@@ -8418,13 +8502,13 @@
         <v>39359</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8466,7 +8550,7 @@
         <v>1224</v>
       </c>
       <c r="N31" s="7">
-        <v>1345326</v>
+        <v>1345327</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -8492,13 +8576,13 @@
         <v>744882</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>613</v>
+        <v>631</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="H32" s="7">
         <v>707</v>
@@ -8507,13 +8591,13 @@
         <v>771781</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="M32" s="7">
         <v>1424</v>
@@ -8522,13 +8606,13 @@
         <v>1516662</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8543,13 +8627,13 @@
         <v>27030</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>620</v>
+        <v>638</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="H33" s="7">
         <v>36</v>
@@ -8558,13 +8642,13 @@
         <v>40438</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="M33" s="7">
         <v>63</v>
@@ -8573,13 +8657,13 @@
         <v>67468</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8594,13 +8678,13 @@
         <v>5585</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -8609,13 +8693,13 @@
         <v>6688</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>629</v>
+        <v>647</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>630</v>
+        <v>648</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="M34" s="7">
         <v>11</v>
@@ -8624,13 +8708,13 @@
         <v>12273</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8701,10 +8785,10 @@
         <v>128</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>634</v>
+        <v>652</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>635</v>
+        <v>653</v>
       </c>
       <c r="H36" s="7">
         <v>2871</v>
@@ -8713,13 +8797,13 @@
         <v>3044833</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>638</v>
+        <v>656</v>
       </c>
       <c r="M36" s="7">
         <v>5700</v>
@@ -8728,13 +8812,13 @@
         <v>6013611</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8749,13 +8833,13 @@
         <v>336980</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>642</v>
+        <v>660</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="H37" s="7">
         <v>355</v>
@@ -8764,13 +8848,13 @@
         <v>377207</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>646</v>
+        <v>664</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="M37" s="7">
         <v>675</v>
@@ -8779,13 +8863,13 @@
         <v>714186</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8800,13 +8884,13 @@
         <v>79374</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="H38" s="7">
         <v>98</v>
@@ -8815,13 +8899,13 @@
         <v>106552</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>654</v>
+        <v>672</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
       <c r="M38" s="7">
         <v>172</v>
@@ -8830,13 +8914,13 @@
         <v>185926</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>657</v>
+        <v>675</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8916,7 +9000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82056664-602E-4E1D-956A-A9EF8DEED15F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFF386C-B9EC-4309-9884-8B0C8621FB07}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8933,7 +9017,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9037,46 +9121,46 @@
         <v>325</v>
       </c>
       <c r="D4" s="7">
-        <v>257558</v>
+        <v>308438</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
       <c r="H4" s="7">
         <v>531</v>
       </c>
       <c r="I4" s="7">
-        <v>266639</v>
+        <v>282795</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="M4" s="7">
         <v>856</v>
       </c>
       <c r="N4" s="7">
-        <v>524196</v>
+        <v>591232</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9088,46 +9172,46 @@
         <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>2740</v>
+        <v>3005</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>4446</v>
+        <v>6508</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
       </c>
       <c r="N5" s="7">
-        <v>7186</v>
+        <v>9512</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>402</v>
+        <v>692</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>674</v>
+        <v>331</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>563</v>
+        <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9142,43 +9226,43 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9190,7 +9274,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -9205,7 +9289,7 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -9220,7 +9304,7 @@
         <v>869</v>
       </c>
       <c r="N7" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -9243,46 +9327,46 @@
         <v>332</v>
       </c>
       <c r="D8" s="7">
-        <v>458985</v>
+        <v>460122</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>679</v>
+        <v>698</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>313</v>
+        <v>699</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="H8" s="7">
         <v>622</v>
       </c>
       <c r="I8" s="7">
-        <v>482705</v>
+        <v>448364</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>681</v>
+        <v>701</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>682</v>
+        <v>459</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>683</v>
+        <v>702</v>
       </c>
       <c r="M8" s="7">
         <v>954</v>
       </c>
       <c r="N8" s="7">
-        <v>941691</v>
+        <v>908486</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9294,46 +9378,46 @@
         <v>47</v>
       </c>
       <c r="D9" s="7">
-        <v>56954</v>
+        <v>55056</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>687</v>
+        <v>706</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>688</v>
+        <v>707</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>689</v>
+        <v>164</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
       </c>
       <c r="I9" s="7">
-        <v>63000</v>
+        <v>58324</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="M9" s="7">
         <v>129</v>
       </c>
       <c r="N9" s="7">
-        <v>119954</v>
+        <v>113380</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>650</v>
+        <v>711</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>693</v>
+        <v>712</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>694</v>
+        <v>713</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9345,46 +9429,46 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>3358</v>
+        <v>3212</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>695</v>
+        <v>714</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>696</v>
+        <v>715</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>697</v>
+        <v>716</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>8861</v>
+        <v>8281</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>698</v>
+        <v>717</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>410</v>
+        <v>276</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>12219</v>
+        <v>11493</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>699</v>
+        <v>718</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>695</v>
+        <v>719</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>700</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9396,7 +9480,7 @@
         <v>382</v>
       </c>
       <c r="D11" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -9411,7 +9495,7 @@
         <v>717</v>
       </c>
       <c r="I11" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -9426,7 +9510,7 @@
         <v>1099</v>
       </c>
       <c r="N11" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -9449,46 +9533,46 @@
         <v>320</v>
       </c>
       <c r="D12" s="7">
-        <v>282590</v>
+        <v>276902</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>701</v>
+        <v>720</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>702</v>
+        <v>721</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="H12" s="7">
         <v>483</v>
       </c>
       <c r="I12" s="7">
-        <v>332792</v>
+        <v>311343</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>704</v>
+        <v>723</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>706</v>
+        <v>725</v>
       </c>
       <c r="M12" s="7">
         <v>803</v>
       </c>
       <c r="N12" s="7">
-        <v>615382</v>
+        <v>588244</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>707</v>
+        <v>726</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>708</v>
+        <v>727</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9500,46 +9584,46 @@
         <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>24267</v>
+        <v>23942</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>152</v>
+        <v>256</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>711</v>
+        <v>668</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
       </c>
       <c r="I13" s="7">
-        <v>29164</v>
+        <v>27212</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>713</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>714</v>
+        <v>731</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
       </c>
       <c r="N13" s="7">
-        <v>53431</v>
+        <v>51154</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>717</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9551,46 +9635,46 @@
         <v>14</v>
       </c>
       <c r="D14" s="7">
-        <v>14334</v>
+        <v>14187</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>123</v>
+        <v>672</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
       </c>
       <c r="I14" s="7">
-        <v>11328</v>
+        <v>10573</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>720</v>
+        <v>736</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="M14" s="7">
         <v>28</v>
       </c>
       <c r="N14" s="7">
-        <v>25661</v>
+        <v>24761</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>655</v>
+        <v>739</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>723</v>
+        <v>740</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9602,7 +9686,7 @@
         <v>359</v>
       </c>
       <c r="D15" s="7">
-        <v>321191</v>
+        <v>315031</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -9617,7 +9701,7 @@
         <v>536</v>
       </c>
       <c r="I15" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -9632,7 +9716,7 @@
         <v>895</v>
       </c>
       <c r="N15" s="7">
-        <v>694474</v>
+        <v>664158</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -9655,46 +9739,46 @@
         <v>259</v>
       </c>
       <c r="D16" s="7">
-        <v>290389</v>
+        <v>281524</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>725</v>
+        <v>742</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>436</v>
+        <v>743</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
       <c r="H16" s="7">
         <v>508</v>
       </c>
       <c r="I16" s="7">
-        <v>371158</v>
+        <v>422808</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>727</v>
+        <v>745</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>728</v>
+        <v>746</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>686</v>
+        <v>747</v>
       </c>
       <c r="M16" s="7">
         <v>767</v>
       </c>
       <c r="N16" s="7">
-        <v>661547</v>
+        <v>704332</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>685</v>
+        <v>749</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>730</v>
+        <v>750</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9706,46 +9790,46 @@
         <v>32</v>
       </c>
       <c r="D17" s="7">
-        <v>29744</v>
+        <v>28917</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>731</v>
+        <v>751</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>732</v>
+        <v>752</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>733</v>
+        <v>753</v>
       </c>
       <c r="H17" s="7">
         <v>79</v>
       </c>
       <c r="I17" s="7">
-        <v>50364</v>
+        <v>46416</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>647</v>
+        <v>754</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>734</v>
+        <v>251</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>735</v>
+        <v>755</v>
       </c>
       <c r="M17" s="7">
         <v>111</v>
       </c>
       <c r="N17" s="7">
-        <v>80108</v>
+        <v>75334</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>736</v>
+        <v>756</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>737</v>
+        <v>757</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>738</v>
+        <v>758</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9757,46 +9841,46 @@
         <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>2108</v>
+        <v>2116</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>695</v>
+        <v>32</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>739</v>
+        <v>759</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>6371</v>
+        <v>5880</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>590</v>
+        <v>760</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>740</v>
+        <v>761</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>741</v>
+        <v>762</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
       </c>
       <c r="N18" s="7">
-        <v>8479</v>
+        <v>7996</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>742</v>
+        <v>763</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>403</v>
+        <v>764</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>743</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9808,7 +9892,7 @@
         <v>292</v>
       </c>
       <c r="D19" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -9823,7 +9907,7 @@
         <v>598</v>
       </c>
       <c r="I19" s="7">
-        <v>427894</v>
+        <v>475105</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -9838,7 +9922,7 @@
         <v>890</v>
       </c>
       <c r="N19" s="7">
-        <v>750134</v>
+        <v>787662</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -9861,46 +9945,46 @@
         <v>260</v>
       </c>
       <c r="D20" s="7">
-        <v>184275</v>
+        <v>167341</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>744</v>
+        <v>528</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>745</v>
+        <v>702</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>746</v>
+        <v>765</v>
       </c>
       <c r="H20" s="7">
         <v>452</v>
       </c>
       <c r="I20" s="7">
-        <v>236991</v>
+        <v>238361</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>571</v>
+        <v>766</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>747</v>
+        <v>767</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>748</v>
+        <v>768</v>
       </c>
       <c r="M20" s="7">
         <v>712</v>
       </c>
       <c r="N20" s="7">
-        <v>421266</v>
+        <v>405701</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>749</v>
+        <v>769</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>750</v>
+        <v>770</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>751</v>
+        <v>771</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9912,46 +9996,46 @@
         <v>18</v>
       </c>
       <c r="D21" s="7">
-        <v>12313</v>
+        <v>11240</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>752</v>
+        <v>772</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>433</v>
+        <v>773</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>753</v>
+        <v>774</v>
       </c>
       <c r="H21" s="7">
         <v>40</v>
       </c>
       <c r="I21" s="7">
-        <v>19925</v>
+        <v>18003</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>515</v>
+        <v>559</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>754</v>
+        <v>773</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>755</v>
+        <v>532</v>
       </c>
       <c r="M21" s="7">
         <v>58</v>
       </c>
       <c r="N21" s="7">
-        <v>32238</v>
+        <v>29243</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>756</v>
+        <v>775</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>776</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>731</v>
+        <v>777</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9963,46 +10047,46 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>757</v>
+        <v>778</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>383</v>
+        <v>695</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>589</v>
+        <v>715</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>758</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>611</v>
+        <v>575</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>759</v>
+        <v>779</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>760</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10014,7 +10098,7 @@
         <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -10029,7 +10113,7 @@
         <v>493</v>
       </c>
       <c r="I23" s="7">
-        <v>257367</v>
+        <v>256777</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -10044,7 +10128,7 @@
         <v>772</v>
       </c>
       <c r="N23" s="7">
-        <v>454115</v>
+        <v>435519</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -10067,43 +10151,43 @@
         <v>338</v>
       </c>
       <c r="D24" s="7">
-        <v>251636</v>
+        <v>244716</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>761</v>
+        <v>780</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>762</v>
+        <v>781</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>763</v>
+        <v>782</v>
       </c>
       <c r="H24" s="7">
         <v>424</v>
       </c>
       <c r="I24" s="7">
-        <v>252990</v>
+        <v>236115</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>764</v>
+        <v>783</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>765</v>
+        <v>784</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>766</v>
+        <v>785</v>
       </c>
       <c r="M24" s="7">
         <v>762</v>
       </c>
       <c r="N24" s="7">
-        <v>504626</v>
+        <v>480831</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>767</v>
+        <v>786</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>768</v>
+        <v>787</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>769</v>
@@ -10118,46 +10202,46 @@
         <v>26</v>
       </c>
       <c r="D25" s="7">
-        <v>18928</v>
+        <v>18437</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>770</v>
+        <v>788</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>771</v>
+        <v>789</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>772</v>
+        <v>354</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
       </c>
       <c r="I25" s="7">
-        <v>14153</v>
+        <v>13174</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>773</v>
+        <v>790</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>774</v>
+        <v>534</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
       </c>
       <c r="N25" s="7">
-        <v>33081</v>
+        <v>31610</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>330</v>
+        <v>791</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>775</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>776</v>
+        <v>792</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10169,46 +10253,46 @@
         <v>7</v>
       </c>
       <c r="D26" s="7">
-        <v>6659</v>
+        <v>6483</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>778</v>
+        <v>794</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>779</v>
+        <v>795</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
       </c>
       <c r="I26" s="7">
-        <v>8478</v>
+        <v>7768</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>564</v>
+        <v>796</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>560</v>
+        <v>797</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
       </c>
       <c r="N26" s="7">
-        <v>15137</v>
+        <v>14251</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>410</v>
+        <v>307</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>34</v>
+        <v>692</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>780</v>
+        <v>798</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10220,7 +10304,7 @@
         <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -10235,7 +10319,7 @@
         <v>460</v>
       </c>
       <c r="I27" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -10250,7 +10334,7 @@
         <v>831</v>
       </c>
       <c r="N27" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -10273,46 +10357,46 @@
         <v>526</v>
       </c>
       <c r="D28" s="7">
-        <v>547761</v>
+        <v>544245</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>781</v>
+        <v>799</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>782</v>
+        <v>800</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>392</v>
+        <v>801</v>
       </c>
       <c r="H28" s="7">
         <v>830</v>
       </c>
       <c r="I28" s="7">
-        <v>713609</v>
+        <v>765014</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>783</v>
+        <v>802</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>784</v>
+        <v>803</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>785</v>
+        <v>804</v>
       </c>
       <c r="M28" s="7">
         <v>1356</v>
       </c>
       <c r="N28" s="7">
-        <v>1261369</v>
+        <v>1309259</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>786</v>
+        <v>805</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>784</v>
+        <v>803</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>787</v>
+        <v>806</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10324,46 +10408,46 @@
         <v>40</v>
       </c>
       <c r="D29" s="7">
-        <v>43773</v>
+        <v>44097</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>331</v>
+        <v>807</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>622</v>
+        <v>808</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>788</v>
+        <v>809</v>
       </c>
       <c r="H29" s="7">
         <v>77</v>
       </c>
       <c r="I29" s="7">
-        <v>50901</v>
+        <v>47336</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>789</v>
+        <v>810</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>790</v>
+        <v>811</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>791</v>
+        <v>812</v>
       </c>
       <c r="M29" s="7">
         <v>117</v>
       </c>
       <c r="N29" s="7">
-        <v>94674</v>
+        <v>91432</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>792</v>
+        <v>813</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>793</v>
+        <v>306</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>794</v>
+        <v>812</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10375,46 +10459,46 @@
         <v>30</v>
       </c>
       <c r="D30" s="7">
-        <v>34705</v>
+        <v>34499</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>795</v>
+        <v>814</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>796</v>
+        <v>453</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>797</v>
+        <v>815</v>
       </c>
       <c r="H30" s="7">
         <v>50</v>
       </c>
       <c r="I30" s="7">
-        <v>37617</v>
+        <v>34982</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>798</v>
+        <v>816</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>253</v>
+        <v>418</v>
       </c>
       <c r="M30" s="7">
         <v>80</v>
       </c>
       <c r="N30" s="7">
-        <v>72322</v>
+        <v>69481</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>801</v>
+        <v>451</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>802</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10426,7 +10510,7 @@
         <v>596</v>
       </c>
       <c r="D31" s="7">
-        <v>626238</v>
+        <v>622840</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>40</v>
@@ -10441,7 +10525,7 @@
         <v>957</v>
       </c>
       <c r="I31" s="7">
-        <v>802127</v>
+        <v>847332</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>40</v>
@@ -10456,7 +10540,7 @@
         <v>1553</v>
       </c>
       <c r="N31" s="7">
-        <v>1428365</v>
+        <v>1470172</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -10479,46 +10563,46 @@
         <v>717</v>
       </c>
       <c r="D32" s="7">
-        <v>808784</v>
+        <v>885733</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>764</v>
+        <v>820</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>804</v>
+        <v>821</v>
       </c>
       <c r="H32" s="7">
         <v>979</v>
       </c>
       <c r="I32" s="7">
-        <v>803459</v>
+        <v>664547</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>805</v>
+        <v>822</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>806</v>
+        <v>823</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>807</v>
+        <v>824</v>
       </c>
       <c r="M32" s="7">
         <v>1696</v>
       </c>
       <c r="N32" s="7">
-        <v>1612243</v>
+        <v>1550280</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>809</v>
+        <v>826</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>367</v>
+        <v>827</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10530,46 +10614,46 @@
         <v>36</v>
       </c>
       <c r="D33" s="7">
-        <v>40960</v>
+        <v>34800</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>152</v>
+        <v>773</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>625</v>
+        <v>828</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>810</v>
+        <v>829</v>
       </c>
       <c r="H33" s="7">
         <v>71</v>
       </c>
       <c r="I33" s="7">
-        <v>55846</v>
+        <v>45475</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>811</v>
+        <v>830</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>812</v>
+        <v>831</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>813</v>
+        <v>832</v>
       </c>
       <c r="M33" s="7">
         <v>107</v>
       </c>
       <c r="N33" s="7">
-        <v>96806</v>
+        <v>80275</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>814</v>
+        <v>833</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>501</v>
+        <v>834</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>360</v>
+        <v>835</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10581,46 +10665,46 @@
         <v>9</v>
       </c>
       <c r="D34" s="7">
-        <v>9684</v>
+        <v>8187</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>742</v>
+        <v>148</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>815</v>
+        <v>327</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>816</v>
+        <v>117</v>
       </c>
       <c r="H34" s="7">
         <v>12</v>
       </c>
       <c r="I34" s="7">
-        <v>9129</v>
+        <v>7709</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>669</v>
+        <v>836</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>817</v>
+        <v>837</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>818</v>
+        <v>649</v>
       </c>
       <c r="M34" s="7">
         <v>21</v>
       </c>
       <c r="N34" s="7">
-        <v>18813</v>
+        <v>15896</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>819</v>
+        <v>838</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>820</v>
+        <v>606</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>821</v>
+        <v>839</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10632,7 +10716,7 @@
         <v>762</v>
       </c>
       <c r="D35" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>40</v>
@@ -10647,7 +10731,7 @@
         <v>1062</v>
       </c>
       <c r="I35" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>40</v>
@@ -10662,7 +10746,7 @@
         <v>1824</v>
       </c>
       <c r="N35" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>40</v>
@@ -10685,46 +10769,46 @@
         <v>3077</v>
       </c>
       <c r="D36" s="7">
-        <v>3081976</v>
+        <v>3169019</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>822</v>
+        <v>840</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>823</v>
+        <v>841</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>824</v>
+        <v>842</v>
       </c>
       <c r="H36" s="7">
         <v>4829</v>
       </c>
       <c r="I36" s="7">
-        <v>3460345</v>
+        <v>3369346</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>825</v>
+        <v>843</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>827</v>
+        <v>845</v>
       </c>
       <c r="M36" s="7">
         <v>7906</v>
       </c>
       <c r="N36" s="7">
-        <v>6542321</v>
+        <v>6538366</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>828</v>
+        <v>846</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>829</v>
+        <v>610</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>830</v>
+        <v>847</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10736,46 +10820,46 @@
         <v>230</v>
       </c>
       <c r="D37" s="7">
-        <v>229679</v>
+        <v>219493</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>831</v>
+        <v>848</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>716</v>
+        <v>849</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>774</v>
+        <v>850</v>
       </c>
       <c r="H37" s="7">
         <v>418</v>
       </c>
       <c r="I37" s="7">
-        <v>287799</v>
+        <v>262448</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>832</v>
+        <v>807</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>833</v>
+        <v>851</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>481</v>
+        <v>815</v>
       </c>
       <c r="M37" s="7">
         <v>648</v>
       </c>
       <c r="N37" s="7">
-        <v>517478</v>
+        <v>481941</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>834</v>
+        <v>852</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>835</v>
+        <v>853</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>401</v>
+        <v>854</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10787,46 +10871,46 @@
         <v>65</v>
       </c>
       <c r="D38" s="7">
-        <v>71007</v>
+        <v>68846</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>836</v>
+        <v>855</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>564</v>
+        <v>856</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>283</v>
+        <v>857</v>
       </c>
       <c r="H38" s="7">
         <v>114</v>
       </c>
       <c r="I38" s="7">
-        <v>82554</v>
+        <v>75938</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>837</v>
+        <v>452</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>231</v>
+        <v>858</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>656</v>
+        <v>859</v>
       </c>
       <c r="M38" s="7">
         <v>179</v>
       </c>
       <c r="N38" s="7">
-        <v>153561</v>
+        <v>144785</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>838</v>
+        <v>471</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>60</v>
+        <v>517</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>839</v>
+        <v>793</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10838,7 +10922,7 @@
         <v>3372</v>
       </c>
       <c r="D39" s="7">
-        <v>3382662</v>
+        <v>3457358</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -10853,7 +10937,7 @@
         <v>5361</v>
       </c>
       <c r="I39" s="7">
-        <v>3830698</v>
+        <v>3707732</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>40</v>
@@ -10868,7 +10952,7 @@
         <v>8733</v>
       </c>
       <c r="N39" s="7">
-        <v>7213360</v>
+        <v>7165091</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
